--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf17</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,43 +540,43 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H2">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I2">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J2">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>3.748471158815556</v>
+        <v>8.22842227961111</v>
       </c>
       <c r="R2">
-        <v>33.73624042934</v>
+        <v>74.05580051649999</v>
       </c>
       <c r="S2">
-        <v>0.4593887222058785</v>
+        <v>0.5413976221791671</v>
       </c>
       <c r="T2">
-        <v>0.4593887222058784</v>
+        <v>0.5413976221791671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,13 +602,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H3">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I3">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J3">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>0.8153046144838889</v>
+        <v>0.8153046144838887</v>
       </c>
       <c r="R3">
-        <v>7.337741530355</v>
+        <v>7.337741530354998</v>
       </c>
       <c r="S3">
-        <v>0.0999185345672122</v>
+        <v>0.05364381708107248</v>
       </c>
       <c r="T3">
-        <v>0.09991853456721218</v>
+        <v>0.05364381708107249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,13 +664,13 @@
         <v>1.430739666666667</v>
       </c>
       <c r="H4">
-        <v>4.292219</v>
+        <v>4.292218999999999</v>
       </c>
       <c r="I4">
-        <v>0.7530926191740722</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="J4">
-        <v>0.7530926191740721</v>
+        <v>0.7311024264480693</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>1.581229157025667</v>
+        <v>2.067920531043111</v>
       </c>
       <c r="R4">
-        <v>14.231062413231</v>
+        <v>18.611284779388</v>
       </c>
       <c r="S4">
-        <v>0.1937853624009815</v>
+        <v>0.1360609871878298</v>
       </c>
       <c r="T4">
-        <v>0.1937853624009815</v>
+        <v>0.1360609871878298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -720,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H5">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I5">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J5">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>1.228965962964444</v>
+        <v>2.429250624777778</v>
       </c>
       <c r="R5">
-        <v>11.06069366668</v>
+        <v>21.863255623</v>
       </c>
       <c r="S5">
-        <v>0.1506142316269407</v>
+        <v>0.1598350773988356</v>
       </c>
       <c r="T5">
-        <v>0.1506142316269407</v>
+        <v>0.1598350773988356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H6">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J6">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +809,22 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
-        <v>0.2673040763011111</v>
+        <v>0.2406997571122222</v>
       </c>
       <c r="R6">
-        <v>2.40573668671</v>
+        <v>2.16629781401</v>
       </c>
       <c r="S6">
-        <v>0.03275908306339787</v>
+        <v>0.01583709145343219</v>
       </c>
       <c r="T6">
-        <v>0.03275908306339787</v>
+        <v>0.0158370914534322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -844,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4690793333333333</v>
+        <v>0.4223926666666666</v>
       </c>
       <c r="H7">
-        <v>1.407238</v>
+        <v>1.267178</v>
       </c>
       <c r="I7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600821</v>
       </c>
       <c r="J7">
-        <v>0.2469073808259278</v>
+        <v>0.2158410161600822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>0.5184185048513333</v>
+        <v>0.6105055223617778</v>
       </c>
       <c r="R7">
-        <v>4.665766543661999</v>
+        <v>5.494549701256</v>
       </c>
       <c r="S7">
-        <v>0.06353406613558915</v>
+        <v>0.04016884730781441</v>
       </c>
       <c r="T7">
-        <v>0.06353406613558915</v>
+        <v>0.04016884730781441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.311489</v>
+      </c>
+      <c r="I8">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J8">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.751166666666666</v>
+      </c>
+      <c r="N8">
+        <v>17.2535</v>
+      </c>
+      <c r="O8">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="P8">
+        <v>0.7405222614421495</v>
+      </c>
+      <c r="Q8">
+        <v>0.5971417179444444</v>
+      </c>
+      <c r="R8">
+        <v>5.3742754615</v>
+      </c>
+      <c r="S8">
+        <v>0.03928956186414686</v>
+      </c>
+      <c r="T8">
+        <v>0.03928956186414687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.311489</v>
+      </c>
+      <c r="I9">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J9">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.709545</v>
+      </c>
+      <c r="O9">
+        <v>0.07337387367415998</v>
+      </c>
+      <c r="P9">
+        <v>0.07337387367416</v>
+      </c>
+      <c r="Q9">
+        <v>0.05916716250055555</v>
+      </c>
+      <c r="R9">
+        <v>0.5325044625049999</v>
+      </c>
+      <c r="S9">
+        <v>0.003892965139655312</v>
+      </c>
+      <c r="T9">
+        <v>0.003892965139655314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1038296666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.311489</v>
+      </c>
+      <c r="I10">
+        <v>0.05305655739184852</v>
+      </c>
+      <c r="J10">
+        <v>0.05305655739184854</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.445350666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.336052</v>
+      </c>
+      <c r="O10">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="P10">
+        <v>0.1861038648836906</v>
+      </c>
+      <c r="Q10">
+        <v>0.1500702779364445</v>
+      </c>
+      <c r="R10">
+        <v>1.350632501428</v>
+      </c>
+      <c r="S10">
+        <v>0.009874030388046353</v>
+      </c>
+      <c r="T10">
+        <v>0.009874030388046356</v>
       </c>
     </row>
   </sheetData>
